--- a/outputs/descriptives.xlsx
+++ b/outputs/descriptives.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\gsa\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA4A940-9E59-4F5F-872A-8C0E6CBC3034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674BE4EB-C4A1-4AF7-BFF1-503077F8A11F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39540" yWindow="3360" windowWidth="27780" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9345" yWindow="4500" windowWidth="25095" windowHeight="15465" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="cond_exp" sheetId="2" r:id="rId2"/>
     <sheet name="cond_ctr" sheetId="3" r:id="rId3"/>
     <sheet name="PLEX" sheetId="4" r:id="rId4"/>
+    <sheet name="compared" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PLEX!$A$1:$C$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>n</t>
   </si>
@@ -51,16 +55,10 @@
     <t>max</t>
   </si>
   <si>
-    <t>cond_dur</t>
-  </si>
-  <si>
     <t>Motivation</t>
   </si>
   <si>
     <t>Direction</t>
-  </si>
-  <si>
-    <t>PLEX_count</t>
   </si>
   <si>
     <t>Captivation</t>
@@ -99,15 +97,6 @@
     <t>Sensation</t>
   </si>
   <si>
-    <t>test_score_adjusted</t>
-  </si>
-  <si>
-    <t>test_dur</t>
-  </si>
-  <si>
-    <t>test_ffe_total</t>
-  </si>
-  <si>
     <t>cond*</t>
   </si>
   <si>
@@ -122,11 +111,32 @@
   <si>
     <t>Interactive visualisation</t>
   </si>
+  <si>
+    <t>MCQ score</t>
+  </si>
+  <si>
+    <t>Total test duration</t>
+  </si>
+  <si>
+    <t>Intervention task score</t>
+  </si>
+  <si>
+    <t>Learning software duration</t>
+  </si>
+  <si>
+    <t>PLEX total count</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,11 +614,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -665,6 +676,1100 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Reported playful experiences</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PLEX!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PLEX!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Competition</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Completion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Challenge</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Humor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relaxation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nurture</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Captivation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Progression</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fantasy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sensation</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Discovery</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Exploration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PLEX!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.64444444444444404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62222222222222201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78888888888888797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27777777777777701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51111111111111096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58888888888888802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74444444444444402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.688888888888888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.688888888888888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76666666666666605</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95555555555555505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE87-4268-BA84-67136A8FB193}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PLEX!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Interactive visualisation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PLEX!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Competition</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Completion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Challenge</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Humor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relaxation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nurture</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Captivation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Progression</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fantasy</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sensation</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Discovery</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Exploration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PLEX!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.152941176470588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21176470588235199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34117647058823503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35294117647058798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35294117647058798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48235294117646998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.494117647058823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50588235294117601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51764705882352902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51764705882352902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78823529411764703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90588235294117603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE87-4268-BA84-67136A8FB193}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="819298192"/>
+        <c:axId val="819299176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="819298192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819299176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="819299176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819298192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12285AD4-9958-4F0E-806E-D2871BA1BCF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -967,12 +2072,12 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A5" sqref="A5:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,431 +2099,395 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>175</v>
       </c>
-      <c r="C2">
-        <v>616.34</v>
-      </c>
-      <c r="D2">
-        <v>737.25</v>
-      </c>
-      <c r="E2">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="F2">
-        <v>3737.05</v>
+      <c r="C2" s="4">
+        <v>10.272254571428499</v>
+      </c>
+      <c r="D2" s="4">
+        <v>12.2875294601312</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.16743333333333299</v>
+      </c>
+      <c r="F2" s="4">
+        <v>62.284183333333303</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>175</v>
       </c>
-      <c r="C3">
-        <v>5.23</v>
-      </c>
-      <c r="D3">
-        <v>1.33</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="C3" s="4">
+        <v>5.2285714285714198</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.33230666548776</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>175</v>
       </c>
-      <c r="C4">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="D4">
-        <v>1.48</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="C4" s="4">
+        <v>4.9771428571428498</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.48151167639362</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>175</v>
       </c>
-      <c r="C5">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="D5">
-        <v>1.91</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
+      <c r="C5" s="4">
+        <v>6.71428571428571</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.4514999932181798</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>175</v>
       </c>
-      <c r="C6">
-        <v>0.54</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="C6" s="4">
+        <v>0.54285714285714204</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.49958932231263797</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>175</v>
       </c>
-      <c r="C7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="C7" s="4">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.49629166698546501</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>175</v>
       </c>
-      <c r="C8">
-        <v>0.41</v>
-      </c>
-      <c r="D8">
-        <v>0.49</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="C8" s="4">
+        <v>0.40571428571428497</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.49243872198445898</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>175</v>
       </c>
-      <c r="C9">
-        <v>0.42</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="C9" s="4">
+        <v>0.42285714285714199</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.49543068126057599</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>175</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="C10" s="4">
+        <v>0.77714285714285702</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.41735739135449201</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>175</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="C11" s="4">
+        <v>0.628571428571428</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.48457317904073899</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>175</v>
       </c>
-      <c r="C12">
-        <v>0.78</v>
-      </c>
-      <c r="D12">
-        <v>0.42</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="C12" s="4">
+        <v>0.93142857142857105</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.25344911363421702</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>175</v>
       </c>
-      <c r="C13">
-        <v>0.63</v>
-      </c>
-      <c r="D13">
-        <v>0.48</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="C13" s="4">
+        <v>0.60571428571428498</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.490099014827591</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>175</v>
       </c>
-      <c r="C14">
-        <v>0.93</v>
-      </c>
-      <c r="D14">
-        <v>0.25</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="C14" s="4">
+        <v>0.314285714285714</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.46556285125953301</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>175</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+      <c r="C15" s="4">
+        <v>0.47428571428571398</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.50077116228737995</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>175</v>
       </c>
-      <c r="C16">
-        <v>0.61</v>
-      </c>
-      <c r="D16">
-        <v>0.49</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="C16" s="4">
+        <v>0.434285714285714</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.49708509941368501</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>175</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="C17" s="4">
+        <v>0.60571428571428498</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.490099014827591</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>175</v>
       </c>
-      <c r="C18">
-        <v>42.74</v>
-      </c>
-      <c r="D18">
-        <v>11.88</v>
-      </c>
-      <c r="E18">
-        <v>9.86</v>
-      </c>
-      <c r="F18">
-        <v>69.95</v>
+      <c r="C18" s="4">
+        <v>2.7441218940017902E-16</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-3.08402903478791</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.07649763696875</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>175</v>
       </c>
-      <c r="C19">
-        <v>1092.02</v>
-      </c>
-      <c r="D19">
-        <v>473.79</v>
-      </c>
-      <c r="E19">
-        <v>427.64</v>
-      </c>
-      <c r="F19">
-        <v>3225.23</v>
+      <c r="C19" s="4">
+        <v>18.200378285714201</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7.8965521233196503</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7.1273833333333299</v>
+      </c>
+      <c r="F19" s="4">
+        <v>53.753833333333297</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>175</v>
       </c>
-      <c r="C20">
-        <v>44.38</v>
-      </c>
-      <c r="D20">
-        <v>21.25</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>89.95</v>
+      <c r="C20" s="4">
+        <v>-1.1758946990728401E-18</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.78549942989646604</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-1.6886363158400399</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.7441361179803001</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>175</v>
-      </c>
-      <c r="C22" s="1">
-        <f>C2/60</f>
-        <v>10.272333333333334</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" ref="D22:F22" si="0">D2/60</f>
-        <v>12.2875</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16750000000000001</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>62.284166666666671</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>175</v>
-      </c>
-      <c r="C23" s="1">
-        <f>C19/60</f>
-        <v>18.200333333333333</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" ref="D23:F23" si="1">D19/60</f>
-        <v>7.8965000000000005</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>7.1273333333333335</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="1"/>
-        <v>53.753833333333333</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1430,10 +2499,13 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C19"/>
+      <selection activeCell="A7" sqref="A7:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -1454,7 +2526,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>90</v>
@@ -1474,27 +2546,27 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>90</v>
       </c>
       <c r="C3">
-        <v>1040.17</v>
+        <v>17.336165000000001</v>
       </c>
       <c r="D3">
-        <v>800.32</v>
+        <v>13.338657844756399</v>
       </c>
       <c r="E3">
-        <v>16.82</v>
+        <v>0.28025</v>
       </c>
       <c r="F3">
-        <v>3737.05</v>
+        <v>62.284183333333303</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>90</v>
@@ -1503,7 +2575,7 @@
         <v>5.3</v>
       </c>
       <c r="D4">
-        <v>1.27</v>
+        <v>1.26712981873527</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1514,7 +2586,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>90</v>
@@ -1523,7 +2595,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D5">
-        <v>1.46</v>
+        <v>1.46149069657653</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1534,7 +2606,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>90</v>
@@ -1543,7 +2615,7 @@
         <v>45.5</v>
       </c>
       <c r="D6">
-        <v>26.12</v>
+        <v>26.124700955226199</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1554,36 +2626,36 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>90</v>
       </c>
-      <c r="C7">
-        <v>5.8</v>
-      </c>
-      <c r="D7">
-        <v>1.66</v>
+      <c r="C7" s="1">
+        <v>7.74444444444444</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.1544889699411298</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>90</v>
       </c>
-      <c r="C8">
-        <v>0.59</v>
-      </c>
-      <c r="D8">
-        <v>0.49</v>
+      <c r="C8" s="1">
+        <v>0.58888888888888802</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.494791851468524</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1594,16 +2666,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>90</v>
       </c>
-      <c r="C9">
-        <v>0.79</v>
-      </c>
-      <c r="D9">
-        <v>0.41</v>
+      <c r="C9" s="1">
+        <v>0.78888888888888797</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.41038333530691501</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1614,16 +2686,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>90</v>
       </c>
-      <c r="C10">
-        <v>0.64</v>
-      </c>
-      <c r="D10">
-        <v>0.48</v>
+      <c r="C10" s="1">
+        <v>0.64444444444444404</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.481363025218431</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1634,16 +2706,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>90</v>
       </c>
-      <c r="C11">
-        <v>0.62</v>
-      </c>
-      <c r="D11">
-        <v>0.49</v>
+      <c r="C11" s="1">
+        <v>0.62222222222222201</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.487547814486678</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1654,56 +2726,56 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>90</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="C12" s="1">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.42532208548874301</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>90</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="C13" s="1">
+        <v>0.74444444444444402</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.43861659721311402</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>90</v>
       </c>
-      <c r="C14">
-        <v>0.77</v>
-      </c>
-      <c r="D14">
-        <v>0.43</v>
+      <c r="C14" s="1">
+        <v>0.95555555555555505</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.20723493215097799</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1714,16 +2786,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>90</v>
       </c>
-      <c r="C15">
-        <v>0.74</v>
-      </c>
-      <c r="D15">
-        <v>0.44</v>
+      <c r="C15" s="1">
+        <v>0.688888888888888</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.46554171525138399</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1734,16 +2806,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>90</v>
       </c>
-      <c r="C16">
-        <v>0.96</v>
-      </c>
-      <c r="D16">
-        <v>0.21</v>
+      <c r="C16" s="1">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.450412489543284</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1754,36 +2826,36 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>90</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="C17" s="1">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.501682562242726</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>90</v>
       </c>
-      <c r="C18">
-        <v>0.69</v>
-      </c>
-      <c r="D18">
-        <v>0.47</v>
+      <c r="C18" s="1">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.50267697860452698</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1794,82 +2866,82 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>90</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="C19" s="1">
+        <v>0.688888888888888</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.46554171525138399</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>90</v>
       </c>
       <c r="C20">
-        <v>43.26</v>
+        <v>0.10307401156550999</v>
       </c>
       <c r="D20">
-        <v>12.98</v>
+        <v>1.0746640173766999</v>
       </c>
       <c r="E20">
-        <v>9.86</v>
+        <v>-3.08402903478791</v>
       </c>
       <c r="F20">
-        <v>69.95</v>
+        <v>2.07649763696875</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>90</v>
       </c>
       <c r="C21">
-        <v>1045.1600000000001</v>
+        <v>17.419282222222201</v>
       </c>
       <c r="D21">
-        <v>519.96</v>
+        <v>8.6660343177003707</v>
       </c>
       <c r="E21">
-        <v>427.64</v>
+        <v>7.1273833333333299</v>
       </c>
       <c r="F21">
-        <v>3225.23</v>
+        <v>53.753833333333297</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>90</v>
       </c>
       <c r="C22">
-        <v>45.13</v>
+        <v>2.88627066292736E-2</v>
       </c>
       <c r="D22">
-        <v>21.14</v>
+        <v>0.78396128022737299</v>
       </c>
       <c r="E22">
-        <v>10.39</v>
+        <v>-1.2677319361527499</v>
       </c>
       <c r="F22">
-        <v>89.95</v>
+        <v>1.7441361179803001</v>
       </c>
     </row>
   </sheetData>
@@ -1882,10 +2954,13 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C19"/>
+      <selection activeCell="A7" sqref="A7:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -1906,7 +2981,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>85</v>
@@ -1926,36 +3001,36 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>85</v>
       </c>
       <c r="C3">
-        <v>167.57</v>
+        <v>2.7928199999999999</v>
       </c>
       <c r="D3">
-        <v>225.86</v>
+        <v>3.7643167939661999</v>
       </c>
       <c r="E3">
-        <v>10.050000000000001</v>
+        <v>0.16743333333333299</v>
       </c>
       <c r="F3">
-        <v>978.42</v>
+        <v>16.306950000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>85</v>
       </c>
       <c r="C4">
-        <v>5.15</v>
+        <v>5.1529411764705797</v>
       </c>
       <c r="D4">
-        <v>1.4</v>
+        <v>1.40157974097377</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1966,16 +3041,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>85</v>
       </c>
       <c r="C5">
-        <v>4.8499999999999996</v>
+        <v>4.8470588235294096</v>
       </c>
       <c r="D5">
-        <v>1.5</v>
+        <v>1.5000466846143099</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1986,7 +3061,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>85</v>
@@ -1995,7 +3070,7 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>24.68</v>
+        <v>24.6813019645776</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2006,36 +3081,36 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>85</v>
       </c>
-      <c r="C7">
-        <v>3.92</v>
-      </c>
-      <c r="D7">
-        <v>1.67</v>
+      <c r="C7" s="1">
+        <v>5.6235294117647001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.27813870657309</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>85</v>
       </c>
-      <c r="C8">
-        <v>0.49</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
+      <c r="C8" s="1">
+        <v>0.494117647058823</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.50293257646585998</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2046,16 +3121,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>85</v>
       </c>
-      <c r="C9">
-        <v>0.34</v>
-      </c>
-      <c r="D9">
-        <v>0.48</v>
+      <c r="C9" s="1">
+        <v>0.34117647058823503</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.476918211428497</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2066,16 +3141,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>85</v>
       </c>
-      <c r="C10">
-        <v>0.15</v>
-      </c>
-      <c r="D10">
-        <v>0.36</v>
+      <c r="C10" s="1">
+        <v>0.152941176470588</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.36206689571789002</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2086,16 +3161,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>85</v>
       </c>
-      <c r="C11">
-        <v>0.21</v>
-      </c>
-      <c r="D11">
-        <v>0.41</v>
+      <c r="C11" s="1">
+        <v>0.21176470588235199</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.41098365299024903</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2106,56 +3181,56 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>85</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="C12" s="1">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.41098365299024903</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>85</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="C13" s="1">
+        <v>0.50588235294117601</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.50293257646585998</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>85</v>
       </c>
-      <c r="C14">
-        <v>0.79</v>
-      </c>
-      <c r="D14">
-        <v>0.41</v>
+      <c r="C14" s="1">
+        <v>0.90588235294117603</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.293725228409004</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2166,16 +3241,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>85</v>
       </c>
-      <c r="C15">
-        <v>0.51</v>
-      </c>
-      <c r="D15">
-        <v>0.5</v>
+      <c r="C15" s="1">
+        <v>0.51764705882352902</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.50265402060042197</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2186,16 +3261,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>85</v>
       </c>
-      <c r="C16">
-        <v>0.91</v>
-      </c>
-      <c r="D16">
-        <v>0.28999999999999998</v>
+      <c r="C16" s="1">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.48072074739373299</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2206,36 +3281,36 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>85</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="C17" s="1">
+        <v>0.48235294117646998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.50265402060042197</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>85</v>
       </c>
-      <c r="C18">
-        <v>0.52</v>
-      </c>
-      <c r="D18">
-        <v>0.5</v>
+      <c r="C18" s="1">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.48072074739373299</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2246,82 +3321,82 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>85</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="C19" s="1">
+        <v>0.51764705882352902</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.50265402060042197</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>85</v>
       </c>
       <c r="C20">
-        <v>42.19</v>
+        <v>-0.109137188716422</v>
       </c>
       <c r="D20">
-        <v>10.64</v>
+        <v>0.90793488762610497</v>
       </c>
       <c r="E20">
-        <v>21.87</v>
+        <v>-2.65398514547485</v>
       </c>
       <c r="F20">
-        <v>63.94</v>
+        <v>1.64645374765569</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>85</v>
       </c>
       <c r="C21">
-        <v>1141.6500000000001</v>
+        <v>19.027421176470501</v>
       </c>
       <c r="D21">
-        <v>416.77</v>
+        <v>6.9461360914745702</v>
       </c>
       <c r="E21">
-        <v>464.46</v>
+        <v>7.7409499999999998</v>
       </c>
       <c r="F21">
-        <v>2955.23</v>
+        <v>49.2538499999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>85</v>
       </c>
       <c r="C22">
-        <v>43.6</v>
+        <v>-3.0560512901583799E-2</v>
       </c>
       <c r="D22">
-        <v>21.46</v>
+        <v>0.790616746917575</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-1.6886363158400399</v>
       </c>
       <c r="F22">
-        <v>79.47</v>
+        <v>1.36980875635879</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +3409,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,159 +3420,436 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>cond_exp!A10</f>
+        <v>Competition</v>
+      </c>
+      <c r="B2" s="3">
+        <f>cond_exp!C10</f>
+        <v>0.64444444444444404</v>
+      </c>
+      <c r="C2" s="3">
+        <f>cond_ctr!C10</f>
+        <v>0.152941176470588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>cond_exp!A11</f>
+        <v>Completion</v>
+      </c>
+      <c r="B3" s="3">
+        <f>cond_exp!C11</f>
+        <v>0.62222222222222201</v>
+      </c>
+      <c r="C3" s="3">
+        <f>cond_ctr!C11</f>
+        <v>0.21176470588235199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>cond_exp!A9</f>
+        <v>Challenge</v>
+      </c>
+      <c r="B4" s="3">
+        <f>cond_exp!C9</f>
+        <v>0.78888888888888797</v>
+      </c>
+      <c r="C4" s="3">
+        <f>cond_ctr!C9</f>
+        <v>0.34117647058823503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>cond_exp!A16</f>
+        <v>Humor</v>
+      </c>
+      <c r="B5" s="3">
+        <f>cond_exp!C16</f>
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="C5" s="3">
+        <f>cond_ctr!C16</f>
+        <v>0.35294117647058798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>cond_exp!A18</f>
+        <v>Relaxation</v>
+      </c>
+      <c r="B6" s="3">
+        <f>cond_exp!C18</f>
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="C6" s="3">
+        <f>cond_ctr!C18</f>
+        <v>0.35294117647058798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>cond_exp!A17</f>
+        <v>Nurture</v>
+      </c>
+      <c r="B7" s="3">
+        <f>cond_exp!C17</f>
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="C7" s="3">
+        <f>cond_ctr!C17</f>
+        <v>0.48235294117646998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>cond_exp!A8</f>
+        <v>Captivation</v>
+      </c>
+      <c r="B8" s="3">
+        <f>cond_exp!C8</f>
+        <v>0.58888888888888802</v>
+      </c>
+      <c r="C8" s="3">
+        <f>cond_ctr!C8</f>
+        <v>0.494117647058823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>cond_exp!A13</f>
+        <v>Progression</v>
+      </c>
+      <c r="B9" s="3">
+        <f>cond_exp!C13</f>
+        <v>0.74444444444444402</v>
+      </c>
+      <c r="C9" s="3">
+        <f>cond_ctr!C13</f>
+        <v>0.50588235294117601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>cond_exp!A15</f>
+        <v>Fantasy</v>
+      </c>
+      <c r="B10" s="3">
+        <f>cond_exp!C15</f>
+        <v>0.688888888888888</v>
+      </c>
+      <c r="C10" s="3">
+        <f>cond_ctr!C15</f>
+        <v>0.51764705882352902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>cond_exp!A19</f>
+        <v>Sensation</v>
+      </c>
+      <c r="B11" s="3">
+        <f>cond_exp!C19</f>
+        <v>0.688888888888888</v>
+      </c>
+      <c r="C11" s="3">
+        <f>cond_ctr!C19</f>
+        <v>0.51764705882352902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>cond_exp!A12</f>
+        <v>Discovery</v>
+      </c>
+      <c r="B12" s="3">
+        <f>cond_exp!C12</f>
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="C12" s="3">
+        <f>cond_ctr!C12</f>
+        <v>0.78823529411764703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>cond_exp!A14</f>
+        <v>Exploration</v>
+      </c>
+      <c r="B13" s="3">
+        <f>cond_exp!C14</f>
+        <v>0.95555555555555505</v>
+      </c>
+      <c r="C13" s="3">
+        <f>cond_ctr!C14</f>
+        <v>0.90588235294117603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <f>cond_exp!C7</f>
+        <v>7.74444444444444</v>
+      </c>
+      <c r="C14" s="1">
+        <f>cond_ctr!C7</f>
+        <v>5.6235294117647001</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C13" xr:uid="{C74A67E5-CCE8-4224-BA41-C1622301231D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+      <sortCondition ref="C1:C13"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13D8BE0-DCFF-47EB-8B7F-84F6CD91EBE0}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.49</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>17.336165000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.7928199999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.34</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.1529411764705797</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.15</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.8470588235294096</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.21</v>
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.74444444444444</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.6235294117647001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.58888888888888802</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.494117647058823</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.78888888888888797</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.34117647058823503</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.79</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.64444444444444404</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.152941176470588</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.51</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.62222222222222201</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.21176470588235199</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.96</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.91</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.78823529411764703</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.74444444444444402</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.50588235294117601</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.52</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.95555555555555505</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.90588235294117603</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.688888888888888</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.51764705882352902</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.35294117647058798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.48235294117646998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.35294117647058798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.688888888888888</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.51764705882352902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.10307401156550999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-0.109137188716422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17.419282222222201</v>
+      </c>
+      <c r="C19" s="1">
+        <v>19.027421176470501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B14">
-        <f>SUM(B2:B13)</f>
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C2:C13)</f>
-        <v>3.9200000000000004</v>
+      <c r="B20" s="1">
+        <v>2.88627066292736E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-3.0560512901583799E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/outputs/descriptives.xlsx
+++ b/outputs/descriptives.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\gsa\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674BE4EB-C4A1-4AF7-BFF1-503077F8A11F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DA9DDF-D37F-4844-AAED-B87753924BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="4500" windowWidth="25095" windowHeight="15465" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
@@ -614,11 +614,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -826,7 +825,7 @@
             <c:numRef>
               <c:f>PLEX!$B$2:$B$13</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.64444444444444404</c:v>
@@ -945,7 +944,7 @@
             <c:numRef>
               <c:f>PLEX!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.152941176470588</c:v>
@@ -1060,6 +1059,7 @@
         <c:axId val="819299176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1077,7 +1077,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1111,6 +1111,7 @@
         <c:crossAx val="819298192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2104,16 +2105,16 @@
       <c r="B2">
         <v>175</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>10.272254571428499</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>12.2875294601312</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>0.16743333333333299</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>62.284183333333303</v>
       </c>
     </row>
@@ -2124,16 +2125,16 @@
       <c r="B3">
         <v>175</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>5.2285714285714198</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.33230666548776</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>7</v>
       </c>
     </row>
@@ -2144,16 +2145,16 @@
       <c r="B4">
         <v>175</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>4.9771428571428498</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.48151167639362</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>7</v>
       </c>
     </row>
@@ -2164,16 +2165,16 @@
       <c r="B5">
         <v>175</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>6.71428571428571</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2.4514999932181798</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>12</v>
       </c>
     </row>
@@ -2184,16 +2185,16 @@
       <c r="B6">
         <v>175</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.54285714285714204</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.49958932231263797</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2204,16 +2205,16 @@
       <c r="B7">
         <v>175</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.57142857142857095</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.49629166698546501</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2224,16 +2225,16 @@
       <c r="B8">
         <v>175</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.40571428571428497</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.49243872198445898</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2244,16 +2245,16 @@
       <c r="B9">
         <v>175</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.42285714285714199</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.49543068126057599</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2264,16 +2265,16 @@
       <c r="B10">
         <v>175</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.77714285714285702</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.41735739135449201</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2284,16 +2285,16 @@
       <c r="B11">
         <v>175</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.628571428571428</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.48457317904073899</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2304,16 +2305,16 @@
       <c r="B12">
         <v>175</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0.93142857142857105</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0.25344911363421702</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2324,16 +2325,16 @@
       <c r="B13">
         <v>175</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0.60571428571428498</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.490099014827591</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2344,16 +2345,16 @@
       <c r="B14">
         <v>175</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0.314285714285714</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.46556285125953301</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2364,16 +2365,16 @@
       <c r="B15">
         <v>175</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>0.47428571428571398</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0.50077116228737995</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2384,16 +2385,16 @@
       <c r="B16">
         <v>175</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0.434285714285714</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.49708509941368501</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2404,16 +2405,16 @@
       <c r="B17">
         <v>175</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>0.60571428571428498</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0.490099014827591</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2424,16 +2425,16 @@
       <c r="B18">
         <v>175</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>2.7441218940017902E-16</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>0.999999999999999</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>-3.08402903478791</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>2.07649763696875</v>
       </c>
     </row>
@@ -2444,16 +2445,16 @@
       <c r="B19">
         <v>175</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>18.200378285714201</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>7.8965521233196503</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>7.1273833333333299</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>53.753833333333297</v>
       </c>
     </row>
@@ -2464,16 +2465,16 @@
       <c r="B20">
         <v>175</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>-1.1758946990728401E-18</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>0.78549942989646604</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>-1.6886363158400399</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>1.7441361179803001</v>
       </c>
     </row>
@@ -3409,13 +3410,14 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/outputs/descriptives.xlsx
+++ b/outputs/descriptives.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\gsa\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DA9DDF-D37F-4844-AAED-B87753924BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B31172-5F2D-42A1-ADC8-EA121E714C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39210" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>Game</t>
   </si>
   <si>
-    <t>Interactive visualisation</t>
-  </si>
-  <si>
     <t>MCQ score</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Control</t>
+  </si>
+  <si>
+    <t>Non-game</t>
   </si>
 </sst>
 </file>
@@ -614,11 +614,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -769,7 +770,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -825,7 +826,7 @@
             <c:numRef>
               <c:f>PLEX!$B$2:$B$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.64444444444444404</c:v>
@@ -881,7 +882,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Interactive visualisation</c:v>
+                  <c:v>Non-game</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -944,7 +945,7 @@
             <c:numRef>
               <c:f>PLEX!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.152941176470588</c:v>
@@ -1060,6 +1061,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1077,7 +1079,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1111,7 +1113,7 @@
         <c:crossAx val="819298192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.2"/>
+        <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1161,12 +1163,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2073,7 +2070,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A20"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2097,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>175</v>
@@ -2160,7 +2157,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>175</v>
@@ -2420,7 +2417,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>175</v>
@@ -2440,7 +2437,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>175</v>
@@ -2460,7 +2457,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>175</v>
@@ -2499,7 +2496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A65AF1-E2EB-444B-BA24-4ADCE89D2810}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A22"/>
     </sheetView>
   </sheetViews>
@@ -2547,7 +2544,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>90</v>
@@ -2627,7 +2624,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>90</v>
@@ -2887,7 +2884,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>90</v>
@@ -2907,7 +2904,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>90</v>
@@ -2927,7 +2924,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>90</v>
@@ -3002,7 +2999,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>85</v>
@@ -3082,7 +3079,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>85</v>
@@ -3342,7 +3339,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>85</v>
@@ -3362,7 +3359,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>85</v>
@@ -3382,7 +3379,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>85</v>
@@ -3409,8 +3406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7395B4B6-3B03-44E2-AB59-41FE5E2B4293}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3425,7 +3422,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3433,11 +3430,11 @@
         <f>cond_exp!A10</f>
         <v>Competition</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <f>cond_exp!C10</f>
         <v>0.64444444444444404</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <f>cond_ctr!C10</f>
         <v>0.152941176470588</v>
       </c>
@@ -3447,11 +3444,11 @@
         <f>cond_exp!A11</f>
         <v>Completion</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <f>cond_exp!C11</f>
         <v>0.62222222222222201</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <f>cond_ctr!C11</f>
         <v>0.21176470588235199</v>
       </c>
@@ -3461,11 +3458,11 @@
         <f>cond_exp!A9</f>
         <v>Challenge</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <f>cond_exp!C9</f>
         <v>0.78888888888888797</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <f>cond_ctr!C9</f>
         <v>0.34117647058823503</v>
       </c>
@@ -3475,11 +3472,11 @@
         <f>cond_exp!A16</f>
         <v>Humor</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <f>cond_exp!C16</f>
         <v>0.27777777777777701</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <f>cond_ctr!C16</f>
         <v>0.35294117647058798</v>
       </c>
@@ -3489,11 +3486,11 @@
         <f>cond_exp!A18</f>
         <v>Relaxation</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <f>cond_exp!C18</f>
         <v>0.51111111111111096</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <f>cond_ctr!C18</f>
         <v>0.35294117647058798</v>
       </c>
@@ -3503,11 +3500,11 @@
         <f>cond_exp!A17</f>
         <v>Nurture</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <f>cond_exp!C17</f>
         <v>0.46666666666666601</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <f>cond_ctr!C17</f>
         <v>0.48235294117646998</v>
       </c>
@@ -3517,11 +3514,11 @@
         <f>cond_exp!A8</f>
         <v>Captivation</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <f>cond_exp!C8</f>
         <v>0.58888888888888802</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <f>cond_ctr!C8</f>
         <v>0.494117647058823</v>
       </c>
@@ -3531,11 +3528,11 @@
         <f>cond_exp!A13</f>
         <v>Progression</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <f>cond_exp!C13</f>
         <v>0.74444444444444402</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <f>cond_ctr!C13</f>
         <v>0.50588235294117601</v>
       </c>
@@ -3545,11 +3542,11 @@
         <f>cond_exp!A15</f>
         <v>Fantasy</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <f>cond_exp!C15</f>
         <v>0.688888888888888</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <f>cond_ctr!C15</f>
         <v>0.51764705882352902</v>
       </c>
@@ -3559,11 +3556,11 @@
         <f>cond_exp!A19</f>
         <v>Sensation</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <f>cond_exp!C19</f>
         <v>0.688888888888888</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <f>cond_ctr!C19</f>
         <v>0.51764705882352902</v>
       </c>
@@ -3573,11 +3570,11 @@
         <f>cond_exp!A12</f>
         <v>Discovery</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <f>cond_exp!C12</f>
         <v>0.76666666666666605</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <f>cond_ctr!C12</f>
         <v>0.78823529411764703</v>
       </c>
@@ -3587,11 +3584,11 @@
         <f>cond_exp!A14</f>
         <v>Exploration</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <f>cond_exp!C14</f>
         <v>0.95555555555555505</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <f>cond_ctr!C14</f>
         <v>0.90588235294117603</v>
       </c>
@@ -3639,12 +3636,12 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
         <v>17.336165000000001</v>
@@ -3677,7 +3674,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>7.74444444444444</v>
@@ -3820,7 +3817,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>0.10307401156550999</v>
@@ -3831,7 +3828,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
         <v>17.419282222222201</v>
@@ -3842,7 +3839,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>2.88627066292736E-2</v>
